--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Sema6a-Plxna4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Sema6a-Plxna4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,19 +82,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Sema6a</t>
   </si>
   <si>
     <t>Plxna4</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>51.12915033333334</v>
+        <v>57.85353733333333</v>
       </c>
       <c r="H2">
-        <v>153.387451</v>
+        <v>173.560612</v>
       </c>
       <c r="I2">
-        <v>0.8013178159252168</v>
+        <v>0.7723324713493742</v>
       </c>
       <c r="J2">
-        <v>0.8013178159252169</v>
+        <v>0.7723324713493744</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.553617333333333</v>
+        <v>6.602366333333333</v>
       </c>
       <c r="N2">
-        <v>16.660852</v>
+        <v>19.807099</v>
       </c>
       <c r="O2">
-        <v>0.673846308532298</v>
+        <v>0.7068089336605662</v>
       </c>
       <c r="P2">
-        <v>0.6738463085322982</v>
+        <v>0.7068089336605662</v>
       </c>
       <c r="Q2">
-        <v>283.9517355298058</v>
+        <v>381.9702471538431</v>
       </c>
       <c r="R2">
-        <v>2555.565619768252</v>
+        <v>3437.732224384588</v>
       </c>
       <c r="S2">
-        <v>0.5399650522223708</v>
+        <v>0.5458914905058809</v>
       </c>
       <c r="T2">
-        <v>0.539965052222371</v>
+        <v>0.5458914905058811</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>51.12915033333334</v>
+        <v>57.85353733333333</v>
       </c>
       <c r="H3">
-        <v>153.387451</v>
+        <v>173.560612</v>
       </c>
       <c r="I3">
-        <v>0.8013178159252168</v>
+        <v>0.7723324713493742</v>
       </c>
       <c r="J3">
-        <v>0.8013178159252169</v>
+        <v>0.7723324713493744</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>7.115741</v>
       </c>
       <c r="O3">
-        <v>0.2877953543625454</v>
+        <v>0.2539225612198319</v>
       </c>
       <c r="P3">
-        <v>0.2877953543625455</v>
+        <v>0.2539225612198319</v>
       </c>
       <c r="Q3">
-        <v>121.2739304406879</v>
+        <v>137.2235958659435</v>
       </c>
       <c r="R3">
-        <v>1091.465373966191</v>
+        <v>1235.012362793492</v>
       </c>
       <c r="S3">
-        <v>0.2306155447912187</v>
+        <v>0.1961126392382755</v>
       </c>
       <c r="T3">
-        <v>0.2306155447912188</v>
+        <v>0.1961126392382756</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>51.12915033333334</v>
+        <v>57.85353733333333</v>
       </c>
       <c r="H4">
-        <v>153.387451</v>
+        <v>173.560612</v>
       </c>
       <c r="I4">
-        <v>0.8013178159252168</v>
+        <v>0.7723324713493742</v>
       </c>
       <c r="J4">
-        <v>0.8013178159252169</v>
+        <v>0.7723324713493744</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.075423</v>
+        <v>0.04677800000000001</v>
       </c>
       <c r="N4">
-        <v>0.226269</v>
+        <v>0.140334</v>
       </c>
       <c r="O4">
-        <v>0.009151424572122396</v>
+        <v>0.005007766402153183</v>
       </c>
       <c r="P4">
-        <v>0.009151424572122398</v>
+        <v>0.005007766402153183</v>
       </c>
       <c r="Q4">
-        <v>3.856313905591001</v>
+        <v>2.706272769378667</v>
       </c>
       <c r="R4">
-        <v>34.706825150319</v>
+        <v>24.356454924408</v>
       </c>
       <c r="S4">
-        <v>0.00733319955073748</v>
+        <v>0.003867660601315331</v>
       </c>
       <c r="T4">
-        <v>0.007333199550737483</v>
+        <v>0.003867660601315333</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,14 +711,14 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>51.12915033333334</v>
+        <v>57.85353733333333</v>
       </c>
       <c r="H5">
-        <v>153.387451</v>
+        <v>173.560612</v>
       </c>
       <c r="I5">
-        <v>0.8013178159252168</v>
+        <v>0.7723324713493742</v>
       </c>
       <c r="J5">
-        <v>0.8013178159252169</v>
+        <v>0.7723324713493744</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1288736666666667</v>
+        <v>0.112148</v>
       </c>
       <c r="N5">
-        <v>0.386621</v>
+        <v>0.336444</v>
       </c>
       <c r="O5">
-        <v>0.01563684340098968</v>
+        <v>0.01200587854266269</v>
       </c>
       <c r="P5">
-        <v>0.01563684340098968</v>
+        <v>0.01200587854266268</v>
       </c>
       <c r="Q5">
-        <v>6.589201077007889</v>
+        <v>6.488158504858667</v>
       </c>
       <c r="R5">
-        <v>59.302809693071</v>
+        <v>58.393426543728</v>
       </c>
       <c r="S5">
-        <v>0.01253008120204569</v>
+        <v>0.009272529845575096</v>
       </c>
       <c r="T5">
-        <v>0.01253008120204569</v>
+        <v>0.009272529845575098</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,14 +773,14 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>51.12915033333334</v>
+        <v>57.85353733333333</v>
       </c>
       <c r="H6">
-        <v>153.387451</v>
+        <v>173.560612</v>
       </c>
       <c r="I6">
-        <v>0.8013178159252168</v>
+        <v>0.7723324713493742</v>
       </c>
       <c r="J6">
-        <v>0.8013178159252169</v>
+        <v>0.7723324713493744</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.11184</v>
+        <v>0.2078846666666666</v>
       </c>
       <c r="N6">
-        <v>0.33552</v>
+        <v>0.6236539999999999</v>
       </c>
       <c r="O6">
-        <v>0.01357006913204419</v>
+        <v>0.02225486017478616</v>
       </c>
       <c r="P6">
-        <v>0.01357006913204419</v>
+        <v>0.02225486017478616</v>
       </c>
       <c r="Q6">
-        <v>5.71828417328</v>
+        <v>12.02686332402755</v>
       </c>
       <c r="R6">
-        <v>51.46455755952</v>
+        <v>108.241769916248</v>
       </c>
       <c r="S6">
-        <v>0.01087393815884385</v>
+        <v>0.01718815115832736</v>
       </c>
       <c r="T6">
-        <v>0.01087393815884385</v>
+        <v>0.01718815115832736</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>8.625510999999999</v>
       </c>
       <c r="I7">
-        <v>0.04506089377389114</v>
+        <v>0.03838291505495044</v>
       </c>
       <c r="J7">
-        <v>0.04506089377389114</v>
+        <v>0.03838291505495045</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.553617333333333</v>
+        <v>6.602366333333333</v>
       </c>
       <c r="N7">
-        <v>16.660852</v>
+        <v>19.807099</v>
       </c>
       <c r="O7">
-        <v>0.673846308532298</v>
+        <v>0.7068089336605662</v>
       </c>
       <c r="P7">
-        <v>0.6738463085322982</v>
+        <v>0.7068089336605662</v>
       </c>
       <c r="Q7">
-        <v>15.96759579948577</v>
+        <v>18.98292781139878</v>
       </c>
       <c r="R7">
-        <v>143.708362195372</v>
+        <v>170.846350302589</v>
       </c>
       <c r="S7">
-        <v>0.03036411692870255</v>
+        <v>0.02712938726077361</v>
       </c>
       <c r="T7">
-        <v>0.03036411692870257</v>
+        <v>0.02712938726077362</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>8.625510999999999</v>
       </c>
       <c r="I8">
-        <v>0.04506089377389114</v>
+        <v>0.03838291505495044</v>
       </c>
       <c r="J8">
-        <v>0.04506089377389114</v>
+        <v>0.03838291505495045</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>7.115741</v>
       </c>
       <c r="O8">
-        <v>0.2877953543625454</v>
+        <v>0.2539225612198319</v>
       </c>
       <c r="P8">
-        <v>0.2877953543625455</v>
+        <v>0.2539225612198319</v>
       </c>
       <c r="Q8">
         <v>6.819655807627888</v>
@@ -948,10 +948,10 @@
         <v>61.37690226865099</v>
       </c>
       <c r="S8">
-        <v>0.01296831589155002</v>
+        <v>0.009746288097836259</v>
       </c>
       <c r="T8">
-        <v>0.01296831589155002</v>
+        <v>0.009746288097836262</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,40 +980,40 @@
         <v>8.625510999999999</v>
       </c>
       <c r="I9">
-        <v>0.04506089377389114</v>
+        <v>0.03838291505495044</v>
       </c>
       <c r="J9">
-        <v>0.04506089377389114</v>
+        <v>0.03838291505495045</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.075423</v>
+        <v>0.04677800000000001</v>
       </c>
       <c r="N9">
-        <v>0.226269</v>
+        <v>0.140334</v>
       </c>
       <c r="O9">
-        <v>0.009151424572122396</v>
+        <v>0.005007766402153183</v>
       </c>
       <c r="P9">
-        <v>0.009151424572122398</v>
+        <v>0.005007766402153183</v>
       </c>
       <c r="Q9">
-        <v>0.216853972051</v>
+        <v>0.1344947178526667</v>
       </c>
       <c r="R9">
-        <v>1.951685748459</v>
+        <v>1.210452460674</v>
       </c>
       <c r="S9">
-        <v>0.0004123713705241844</v>
+        <v>0.0001922126724288804</v>
       </c>
       <c r="T9">
-        <v>0.0004123713705241846</v>
+        <v>0.0001922126724288804</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1042,10 +1042,10 @@
         <v>8.625510999999999</v>
       </c>
       <c r="I10">
-        <v>0.04506089377389114</v>
+        <v>0.03838291505495044</v>
       </c>
       <c r="J10">
-        <v>0.04506089377389114</v>
+        <v>0.03838291505495045</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.1288736666666667</v>
+        <v>0.112148</v>
       </c>
       <c r="N10">
-        <v>0.386621</v>
+        <v>0.336444</v>
       </c>
       <c r="O10">
-        <v>0.01563684340098968</v>
+        <v>0.01200587854266269</v>
       </c>
       <c r="P10">
-        <v>0.01563684340098968</v>
+        <v>0.01200587854266268</v>
       </c>
       <c r="Q10">
-        <v>0.3705337431478888</v>
+        <v>0.3224446025426667</v>
       </c>
       <c r="R10">
-        <v>3.334803688331</v>
+        <v>2.902001422884</v>
       </c>
       <c r="S10">
-        <v>0.0007046101394509664</v>
+        <v>0.0004608206162630741</v>
       </c>
       <c r="T10">
-        <v>0.0007046101394509667</v>
+        <v>0.0004608206162630741</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,40 +1104,40 @@
         <v>8.625510999999999</v>
       </c>
       <c r="I11">
-        <v>0.04506089377389114</v>
+        <v>0.03838291505495044</v>
       </c>
       <c r="J11">
-        <v>0.04506089377389114</v>
+        <v>0.03838291505495045</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.11184</v>
+        <v>0.2078846666666666</v>
       </c>
       <c r="N11">
-        <v>0.33552</v>
+        <v>0.6236539999999999</v>
       </c>
       <c r="O11">
-        <v>0.01357006913204419</v>
+        <v>0.02225486017478616</v>
       </c>
       <c r="P11">
-        <v>0.01357006913204419</v>
+        <v>0.02225486017478616</v>
       </c>
       <c r="Q11">
-        <v>0.32155905008</v>
+        <v>0.5977038263548887</v>
       </c>
       <c r="R11">
-        <v>2.89403145072</v>
+        <v>5.379334437193999</v>
       </c>
       <c r="S11">
-        <v>0.0006114794436634022</v>
+        <v>0.0008542064076486164</v>
       </c>
       <c r="T11">
-        <v>0.0006114794436634024</v>
+        <v>0.0008542064076486167</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>9.802011</v>
+        <v>0.07776233333333334</v>
       </c>
       <c r="H12">
-        <v>29.406033</v>
+        <v>0.233287</v>
       </c>
       <c r="I12">
-        <v>0.153621290300892</v>
+        <v>0.001038110681723578</v>
       </c>
       <c r="J12">
-        <v>0.153621290300892</v>
+        <v>0.001038110681723578</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.553617333333333</v>
+        <v>6.602366333333333</v>
       </c>
       <c r="N12">
-        <v>16.660852</v>
+        <v>19.807099</v>
       </c>
       <c r="O12">
-        <v>0.673846308532298</v>
+        <v>0.7068089336605662</v>
       </c>
       <c r="P12">
-        <v>0.6738463085322982</v>
+        <v>0.7068089336605662</v>
       </c>
       <c r="Q12">
-        <v>54.43661819112399</v>
+        <v>0.5134154116014444</v>
       </c>
       <c r="R12">
-        <v>489.929563720116</v>
+        <v>4.620738704413</v>
       </c>
       <c r="S12">
-        <v>0.1035171393812246</v>
+        <v>0.0007337459039706858</v>
       </c>
       <c r="T12">
-        <v>0.1035171393812246</v>
+        <v>0.0007337459039706859</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>9.802011</v>
+        <v>0.07776233333333334</v>
       </c>
       <c r="H13">
-        <v>29.406033</v>
+        <v>0.233287</v>
       </c>
       <c r="I13">
-        <v>0.153621290300892</v>
+        <v>0.001038110681723578</v>
       </c>
       <c r="J13">
-        <v>0.153621290300892</v>
+        <v>0.001038110681723578</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>7.115741</v>
       </c>
       <c r="O13">
-        <v>0.2877953543625454</v>
+        <v>0.2539225612198319</v>
       </c>
       <c r="P13">
-        <v>0.2877953543625455</v>
+        <v>0.2539225612198319</v>
       </c>
       <c r="Q13">
-        <v>23.249523851717</v>
+        <v>0.1844455411852222</v>
       </c>
       <c r="R13">
-        <v>209.245714665453</v>
+        <v>1.660009870667</v>
       </c>
       <c r="S13">
-        <v>0.04421149367977668</v>
+        <v>0.0002635997231329167</v>
       </c>
       <c r="T13">
-        <v>0.0442114936797767</v>
+        <v>0.0002635997231329168</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>9.802011</v>
+        <v>0.07776233333333334</v>
       </c>
       <c r="H14">
-        <v>29.406033</v>
+        <v>0.233287</v>
       </c>
       <c r="I14">
-        <v>0.153621290300892</v>
+        <v>0.001038110681723578</v>
       </c>
       <c r="J14">
-        <v>0.153621290300892</v>
+        <v>0.001038110681723578</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.075423</v>
+        <v>0.04677800000000001</v>
       </c>
       <c r="N14">
-        <v>0.226269</v>
+        <v>0.140334</v>
       </c>
       <c r="O14">
-        <v>0.009151424572122396</v>
+        <v>0.005007766402153183</v>
       </c>
       <c r="P14">
-        <v>0.009151424572122398</v>
+        <v>0.005007766402153183</v>
       </c>
       <c r="Q14">
-        <v>0.7392970756530001</v>
+        <v>0.003637566428666667</v>
       </c>
       <c r="R14">
-        <v>6.653673680877001</v>
+        <v>0.03273809785800001</v>
       </c>
       <c r="S14">
-        <v>0.001405853650860731</v>
+        <v>5.198615793651671E-06</v>
       </c>
       <c r="T14">
-        <v>0.001405853650860732</v>
+        <v>5.198615793651672E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>9.802011</v>
+        <v>0.07776233333333334</v>
       </c>
       <c r="H15">
-        <v>29.406033</v>
+        <v>0.233287</v>
       </c>
       <c r="I15">
-        <v>0.153621290300892</v>
+        <v>0.001038110681723578</v>
       </c>
       <c r="J15">
-        <v>0.153621290300892</v>
+        <v>0.001038110681723578</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.1288736666666667</v>
+        <v>0.112148</v>
       </c>
       <c r="N15">
-        <v>0.386621</v>
+        <v>0.336444</v>
       </c>
       <c r="O15">
-        <v>0.01563684340098968</v>
+        <v>0.01200587854266269</v>
       </c>
       <c r="P15">
-        <v>0.01563684340098968</v>
+        <v>0.01200587854266268</v>
       </c>
       <c r="Q15">
-        <v>1.263221098277</v>
+        <v>0.008720890158666669</v>
       </c>
       <c r="R15">
-        <v>11.368989884493</v>
+        <v>0.07848801142800001</v>
       </c>
       <c r="S15">
-        <v>0.002402152059493023</v>
+        <v>1.246343075861404E-05</v>
       </c>
       <c r="T15">
-        <v>0.002402152059493023</v>
+        <v>1.246343075861404E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,681 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.07776233333333334</v>
+      </c>
+      <c r="H16">
+        <v>0.233287</v>
+      </c>
+      <c r="I16">
+        <v>0.001038110681723578</v>
+      </c>
+      <c r="J16">
+        <v>0.001038110681723578</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.2078846666666666</v>
+      </c>
+      <c r="N16">
+        <v>0.6236539999999999</v>
+      </c>
+      <c r="O16">
+        <v>0.02225486017478616</v>
+      </c>
+      <c r="P16">
+        <v>0.02225486017478616</v>
+      </c>
+      <c r="Q16">
+        <v>0.01616559674422222</v>
+      </c>
+      <c r="R16">
+        <v>0.145490370698</v>
+      </c>
+      <c r="S16">
+        <v>2.310300806771017E-05</v>
+      </c>
+      <c r="T16">
+        <v>2.310300806771017E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>14.06980433333333</v>
+      </c>
+      <c r="H17">
+        <v>42.209413</v>
+      </c>
+      <c r="I17">
+        <v>0.1878289081885491</v>
+      </c>
+      <c r="J17">
+        <v>0.1878289081885492</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>6.602366333333333</v>
+      </c>
+      <c r="N17">
+        <v>19.807099</v>
+      </c>
+      <c r="O17">
+        <v>0.7068089336605662</v>
+      </c>
+      <c r="P17">
+        <v>0.7068089336605662</v>
+      </c>
+      <c r="Q17">
+        <v>92.89400244698743</v>
+      </c>
+      <c r="R17">
+        <v>836.046022022887</v>
+      </c>
+      <c r="S17">
+        <v>0.1327591503073768</v>
+      </c>
+      <c r="T17">
+        <v>0.1327591503073768</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>14.06980433333333</v>
+      </c>
+      <c r="H18">
+        <v>42.209413</v>
+      </c>
+      <c r="I18">
+        <v>0.1878289081885491</v>
+      </c>
+      <c r="J18">
+        <v>0.1878289081885492</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>2.371913666666666</v>
+      </c>
+      <c r="N18">
+        <v>7.115741</v>
+      </c>
+      <c r="O18">
+        <v>0.2539225612198319</v>
+      </c>
+      <c r="P18">
+        <v>0.2539225612198319</v>
+      </c>
+      <c r="Q18">
+        <v>33.37236118555921</v>
+      </c>
+      <c r="R18">
+        <v>300.351250670033</v>
+      </c>
+      <c r="S18">
+        <v>0.04769399743836104</v>
+      </c>
+      <c r="T18">
+        <v>0.04769399743836106</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>14.06980433333333</v>
+      </c>
+      <c r="H19">
+        <v>42.209413</v>
+      </c>
+      <c r="I19">
+        <v>0.1878289081885491</v>
+      </c>
+      <c r="J19">
+        <v>0.1878289081885492</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.04677800000000001</v>
+      </c>
+      <c r="N19">
+        <v>0.140334</v>
+      </c>
+      <c r="O19">
+        <v>0.005007766402153183</v>
+      </c>
+      <c r="P19">
+        <v>0.005007766402153183</v>
+      </c>
+      <c r="Q19">
+        <v>0.6581573071046667</v>
+      </c>
+      <c r="R19">
+        <v>5.923415763942001</v>
+      </c>
+      <c r="S19">
+        <v>0.0009406032957797311</v>
+      </c>
+      <c r="T19">
+        <v>0.0009406032957797315</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>14.06980433333333</v>
+      </c>
+      <c r="H20">
+        <v>42.209413</v>
+      </c>
+      <c r="I20">
+        <v>0.1878289081885491</v>
+      </c>
+      <c r="J20">
+        <v>0.1878289081885492</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.112148</v>
+      </c>
+      <c r="N20">
+        <v>0.336444</v>
+      </c>
+      <c r="O20">
+        <v>0.01200587854266269</v>
+      </c>
+      <c r="P20">
+        <v>0.01200587854266268</v>
+      </c>
+      <c r="Q20">
+        <v>1.577900416374667</v>
+      </c>
+      <c r="R20">
+        <v>14.201103747372</v>
+      </c>
+      <c r="S20">
+        <v>0.002255051058512662</v>
+      </c>
+      <c r="T20">
+        <v>0.002255051058512662</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>9.802011</v>
-      </c>
-      <c r="H16">
-        <v>29.406033</v>
-      </c>
-      <c r="I16">
-        <v>0.153621290300892</v>
-      </c>
-      <c r="J16">
-        <v>0.153621290300892</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>14.06980433333333</v>
+      </c>
+      <c r="H21">
+        <v>42.209413</v>
+      </c>
+      <c r="I21">
+        <v>0.1878289081885491</v>
+      </c>
+      <c r="J21">
+        <v>0.1878289081885492</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.2078846666666666</v>
+      </c>
+      <c r="N21">
+        <v>0.6236539999999999</v>
+      </c>
+      <c r="O21">
+        <v>0.02225486017478616</v>
+      </c>
+      <c r="P21">
+        <v>0.02225486017478616</v>
+      </c>
+      <c r="Q21">
+        <v>2.924896583900221</v>
+      </c>
+      <c r="R21">
+        <v>26.324069255102</v>
+      </c>
+      <c r="S21">
+        <v>0.004180106088518908</v>
+      </c>
+      <c r="T21">
+        <v>0.004180106088518909</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
         <v>0.3333333333333333</v>
       </c>
-      <c r="M16">
-        <v>0.11184</v>
-      </c>
-      <c r="N16">
-        <v>0.33552</v>
-      </c>
-      <c r="O16">
-        <v>0.01357006913204419</v>
-      </c>
-      <c r="P16">
-        <v>0.01357006913204419</v>
-      </c>
-      <c r="Q16">
-        <v>1.09625691024</v>
-      </c>
-      <c r="R16">
-        <v>9.866312192160001</v>
-      </c>
-      <c r="S16">
-        <v>0.002084651529536934</v>
-      </c>
-      <c r="T16">
-        <v>0.002084651529536935</v>
+      <c r="G22">
+        <v>0.031281</v>
+      </c>
+      <c r="H22">
+        <v>0.093843</v>
+      </c>
+      <c r="I22">
+        <v>0.0004175947254025546</v>
+      </c>
+      <c r="J22">
+        <v>0.0004175947254025547</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>6.602366333333333</v>
+      </c>
+      <c r="N22">
+        <v>19.807099</v>
+      </c>
+      <c r="O22">
+        <v>0.7068089336605662</v>
+      </c>
+      <c r="P22">
+        <v>0.7068089336605662</v>
+      </c>
+      <c r="Q22">
+        <v>0.206528621273</v>
+      </c>
+      <c r="R22">
+        <v>1.858757591457</v>
+      </c>
+      <c r="S22">
+        <v>0.0002951596825640566</v>
+      </c>
+      <c r="T22">
+        <v>0.0002951596825640567</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.031281</v>
+      </c>
+      <c r="H23">
+        <v>0.093843</v>
+      </c>
+      <c r="I23">
+        <v>0.0004175947254025546</v>
+      </c>
+      <c r="J23">
+        <v>0.0004175947254025547</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>2.371913666666666</v>
+      </c>
+      <c r="N23">
+        <v>7.115741</v>
+      </c>
+      <c r="O23">
+        <v>0.2539225612198319</v>
+      </c>
+      <c r="P23">
+        <v>0.2539225612198319</v>
+      </c>
+      <c r="Q23">
+        <v>0.07419583140699998</v>
+      </c>
+      <c r="R23">
+        <v>0.667762482663</v>
+      </c>
+      <c r="S23">
+        <v>0.000106036722226109</v>
+      </c>
+      <c r="T23">
+        <v>0.0001060367222261091</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.031281</v>
+      </c>
+      <c r="H24">
+        <v>0.093843</v>
+      </c>
+      <c r="I24">
+        <v>0.0004175947254025546</v>
+      </c>
+      <c r="J24">
+        <v>0.0004175947254025547</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.04677800000000001</v>
+      </c>
+      <c r="N24">
+        <v>0.140334</v>
+      </c>
+      <c r="O24">
+        <v>0.005007766402153183</v>
+      </c>
+      <c r="P24">
+        <v>0.005007766402153183</v>
+      </c>
+      <c r="Q24">
+        <v>0.001463262618</v>
+      </c>
+      <c r="R24">
+        <v>0.013169363562</v>
+      </c>
+      <c r="S24">
+        <v>2.091216835587297E-06</v>
+      </c>
+      <c r="T24">
+        <v>2.091216835587298E-06</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.031281</v>
+      </c>
+      <c r="H25">
+        <v>0.093843</v>
+      </c>
+      <c r="I25">
+        <v>0.0004175947254025546</v>
+      </c>
+      <c r="J25">
+        <v>0.0004175947254025547</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.112148</v>
+      </c>
+      <c r="N25">
+        <v>0.336444</v>
+      </c>
+      <c r="O25">
+        <v>0.01200587854266269</v>
+      </c>
+      <c r="P25">
+        <v>0.01200587854266268</v>
+      </c>
+      <c r="Q25">
+        <v>0.003508101588</v>
+      </c>
+      <c r="R25">
+        <v>0.031572914292</v>
+      </c>
+      <c r="S25">
+        <v>5.013591553239647E-06</v>
+      </c>
+      <c r="T25">
+        <v>5.013591553239648E-06</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.031281</v>
+      </c>
+      <c r="H26">
+        <v>0.093843</v>
+      </c>
+      <c r="I26">
+        <v>0.0004175947254025546</v>
+      </c>
+      <c r="J26">
+        <v>0.0004175947254025547</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.2078846666666666</v>
+      </c>
+      <c r="N26">
+        <v>0.6236539999999999</v>
+      </c>
+      <c r="O26">
+        <v>0.02225486017478616</v>
+      </c>
+      <c r="P26">
+        <v>0.02225486017478616</v>
+      </c>
+      <c r="Q26">
+        <v>0.006502840257999998</v>
+      </c>
+      <c r="R26">
+        <v>0.05852556232199999</v>
+      </c>
+      <c r="S26">
+        <v>9.293512223562072E-06</v>
+      </c>
+      <c r="T26">
+        <v>9.293512223562076E-06</v>
       </c>
     </row>
   </sheetData>
